--- a/2021-02-20to02-26 (A5) C54321 ShortName/30_08v01_DemixCMMIv2Tool.xlsx
+++ b/2021-02-20to02-26 (A5) C54321 ShortName/30_08v01_DemixCMMIv2Tool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PietervanZyl\Documents\GitHub\CMMITools\2021-02-20to02-26 (A5) C54321 ShortName\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3579CB7-E78B-4CA6-9652-7A5038181FA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DD5DCF-6E5E-4415-A9FB-D536C9B62A0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="852" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="852" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tmp" sheetId="39" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3985" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3983" uniqueCount="130">
   <si>
     <t xml:space="preserve">GOV - GOVERNANCE (GOV)  </t>
   </si>
@@ -890,6 +890,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -911,21 +929,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -935,17 +938,14 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -959,7 +959,14 @@
     <cellStyle name="Normal_Consolidate Data 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="常规_CMMI_PIID0809_v1.2" xfId="4" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
   </cellStyles>
-  <dxfs count="446">
+  <dxfs count="420">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -971,213 +978,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6422,7 +6222,7 @@
   <dimension ref="A2:AA35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y28" sqref="Y28"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -6433,54 +6233,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="93">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="49" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="28" t="s">
         <v>73</v>
       </c>
       <c r="O2" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="50" t="s">
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
       <c r="V2" s="30" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="31" t="s">
         <v>78</v>
       </c>
@@ -6543,7 +6343,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.5">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="54" t="s">
         <v>98</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -6611,7 +6411,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.5">
-      <c r="A5" s="48"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="32">
         <v>1.1000000000000001</v>
       </c>
@@ -6683,7 +6483,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.5">
-      <c r="A6" s="48"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="32">
         <v>1.2</v>
       </c>
@@ -6729,7 +6529,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.5">
-      <c r="A7" s="48"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="32">
         <v>1.3</v>
       </c>
@@ -6762,7 +6562,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.5">
-      <c r="A8" s="48"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="32">
         <v>1.4</v>
       </c>
@@ -6795,7 +6595,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.5">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="54" t="s">
         <v>102</v>
       </c>
       <c r="B9" s="33" t="s">
@@ -6864,7 +6664,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.5">
-      <c r="A10" s="48"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="32">
         <v>2.1</v>
       </c>
@@ -6930,7 +6730,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.5">
-      <c r="A11" s="48"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="32">
         <v>2.2000000000000002</v>
       </c>
@@ -6996,7 +6796,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="15.5">
-      <c r="A12" s="48"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="32">
         <v>2.2999999999999998</v>
       </c>
@@ -7052,7 +6852,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.5">
-      <c r="A13" s="48"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="32">
         <v>2.4</v>
       </c>
@@ -7087,9 +6887,7 @@
       <c r="Q13" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="R13" s="33" t="s">
-        <v>100</v>
-      </c>
+      <c r="R13" s="33"/>
       <c r="S13" s="33"/>
       <c r="T13" s="33" t="s">
         <v>100</v>
@@ -7102,7 +6900,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.5">
-      <c r="A14" s="48"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="32">
         <v>2.5</v>
       </c>
@@ -7140,7 +6938,7 @@
       <c r="V14" s="35"/>
     </row>
     <row r="15" spans="1:27" ht="15.5">
-      <c r="A15" s="48"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="32">
         <v>2.6</v>
       </c>
@@ -7174,7 +6972,7 @@
       <c r="V15" s="35"/>
     </row>
     <row r="16" spans="1:27" ht="15.5">
-      <c r="A16" s="48"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="32">
         <v>2.7</v>
       </c>
@@ -7202,7 +7000,7 @@
       <c r="V16" s="35"/>
     </row>
     <row r="17" spans="1:22" ht="15.5">
-      <c r="A17" s="48"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="32">
         <v>2.8</v>
       </c>
@@ -7230,7 +7028,7 @@
       <c r="V17" s="35"/>
     </row>
     <row r="18" spans="1:22" ht="15.5">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="54" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="33" t="s">
@@ -7294,7 +7092,7 @@
       <c r="V18" s="35"/>
     </row>
     <row r="19" spans="1:22" ht="15.5">
-      <c r="A19" s="48"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="32">
         <v>3.1</v>
       </c>
@@ -7358,7 +7156,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.5">
-      <c r="A20" s="48"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="32">
         <v>3.2</v>
       </c>
@@ -7414,7 +7212,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.5">
-      <c r="A21" s="48"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="32">
         <v>3.3</v>
       </c>
@@ -7464,7 +7262,7 @@
       <c r="V21" s="35"/>
     </row>
     <row r="22" spans="1:22" ht="15.5">
-      <c r="A22" s="48"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="32">
         <v>3.4</v>
       </c>
@@ -7510,7 +7308,7 @@
       <c r="V22" s="35"/>
     </row>
     <row r="23" spans="1:22" ht="15.5">
-      <c r="A23" s="48"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="32">
         <v>3.5</v>
       </c>
@@ -7552,7 +7350,7 @@
       <c r="V23" s="35"/>
     </row>
     <row r="24" spans="1:22" ht="15.5">
-      <c r="A24" s="48"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="32">
         <v>3.6</v>
       </c>
@@ -7590,7 +7388,7 @@
       <c r="V24" s="35"/>
     </row>
     <row r="25" spans="1:22" ht="15.5">
-      <c r="A25" s="48"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="32">
         <v>3.7</v>
       </c>
@@ -7620,7 +7418,7 @@
       <c r="V25" s="35"/>
     </row>
     <row r="26" spans="1:22" ht="15.5">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="54" t="s">
         <v>104</v>
       </c>
       <c r="B26" s="33" t="s">
@@ -7658,7 +7456,7 @@
       <c r="V26" s="35"/>
     </row>
     <row r="27" spans="1:22" ht="15.5">
-      <c r="A27" s="48"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="32">
         <v>4.0999999999999996</v>
       </c>
@@ -7696,7 +7494,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.5">
-      <c r="A28" s="48"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="32">
         <v>4.2</v>
       </c>
@@ -7726,7 +7524,7 @@
       <c r="V28" s="35"/>
     </row>
     <row r="29" spans="1:22" ht="15.5">
-      <c r="A29" s="48"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="32">
         <v>4.3</v>
       </c>
@@ -7754,7 +7552,7 @@
       <c r="V29" s="35"/>
     </row>
     <row r="30" spans="1:22" ht="15.5">
-      <c r="A30" s="48"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="32">
         <v>4.4000000000000004</v>
       </c>
@@ -7782,7 +7580,7 @@
       <c r="V30" s="35"/>
     </row>
     <row r="31" spans="1:22" ht="15.5">
-      <c r="A31" s="48"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="32">
         <v>4.5</v>
       </c>
@@ -7810,7 +7608,7 @@
       <c r="V31" s="35"/>
     </row>
     <row r="32" spans="1:22" ht="15.5">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="54" t="s">
         <v>106</v>
       </c>
       <c r="B32" s="33" t="s">
@@ -7842,7 +7640,7 @@
       <c r="V32" s="35"/>
     </row>
     <row r="33" spans="1:22" ht="15.5">
-      <c r="A33" s="48"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="32">
         <v>5.0999999999999996</v>
       </c>
@@ -7872,7 +7670,7 @@
       <c r="V33" s="35"/>
     </row>
     <row r="34" spans="1:22" ht="15.5">
-      <c r="A34" s="48"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="32">
         <v>5.2</v>
       </c>
@@ -7900,7 +7698,7 @@
       <c r="V34" s="35"/>
     </row>
     <row r="35" spans="1:22" ht="15.5">
-      <c r="A35" s="48"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="32">
         <v>5.3</v>
       </c>
@@ -7944,104 +7742,104 @@
     <mergeCell ref="K2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:V35">
-    <cfRule type="cellIs" dxfId="445" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="26" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="27" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="443" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="28" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="29" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="30" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="440" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="21" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="22" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="23" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="24" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="25" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="435" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="16" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="17" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="18" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="19" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="431" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="20" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="430" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="11" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="12" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="13" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="14" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="15" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="425" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="6" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="7" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="8" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="9" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="10" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="420" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="419" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="2" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="3" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="4" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="5" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8073,54 +7871,54 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="93">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="49" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="28" t="s">
         <v>73</v>
       </c>
       <c r="O2" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="50" t="s">
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
       <c r="V2" s="30" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="31" t="s">
         <v>78</v>
       </c>
@@ -8183,7 +7981,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.5">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="54" t="s">
         <v>98</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -8251,7 +8049,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.5">
-      <c r="A5" s="48"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="32">
         <v>1.1000000000000001</v>
       </c>
@@ -8323,7 +8121,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.5">
-      <c r="A6" s="48"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="32">
         <v>1.2</v>
       </c>
@@ -8369,7 +8167,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.5">
-      <c r="A7" s="48"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="32">
         <v>1.3</v>
       </c>
@@ -8402,7 +8200,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.5">
-      <c r="A8" s="48"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="32">
         <v>1.4</v>
       </c>
@@ -8435,7 +8233,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.5">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="54" t="s">
         <v>102</v>
       </c>
       <c r="B9" s="33" t="s">
@@ -8504,7 +8302,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.5">
-      <c r="A10" s="48"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="32">
         <v>2.1</v>
       </c>
@@ -8570,7 +8368,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.5">
-      <c r="A11" s="48"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="32">
         <v>2.2000000000000002</v>
       </c>
@@ -8636,7 +8434,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="15.5">
-      <c r="A12" s="48"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="32">
         <v>2.2999999999999998</v>
       </c>
@@ -8692,7 +8490,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.5">
-      <c r="A13" s="48"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="32">
         <v>2.4</v>
       </c>
@@ -8742,7 +8540,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.5">
-      <c r="A14" s="48"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="32">
         <v>2.5</v>
       </c>
@@ -8780,7 +8578,7 @@
       <c r="V14" s="35"/>
     </row>
     <row r="15" spans="1:27" ht="15.5">
-      <c r="A15" s="48"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="32">
         <v>2.6</v>
       </c>
@@ -8814,7 +8612,7 @@
       <c r="V15" s="35"/>
     </row>
     <row r="16" spans="1:27" ht="15.5">
-      <c r="A16" s="48"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="32">
         <v>2.7</v>
       </c>
@@ -8842,7 +8640,7 @@
       <c r="V16" s="35"/>
     </row>
     <row r="17" spans="1:22" ht="15.5">
-      <c r="A17" s="48"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="32">
         <v>2.8</v>
       </c>
@@ -8870,7 +8668,7 @@
       <c r="V17" s="35"/>
     </row>
     <row r="18" spans="1:22" ht="15.5">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="54" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="33" t="s">
@@ -8934,7 +8732,7 @@
       <c r="V18" s="35"/>
     </row>
     <row r="19" spans="1:22" ht="15.5">
-      <c r="A19" s="48"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="32">
         <v>3.1</v>
       </c>
@@ -8998,7 +8796,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.5">
-      <c r="A20" s="48"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="32">
         <v>3.2</v>
       </c>
@@ -9056,7 +8854,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.5">
-      <c r="A21" s="48"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="32">
         <v>3.3</v>
       </c>
@@ -9106,7 +8904,7 @@
       <c r="V21" s="35"/>
     </row>
     <row r="22" spans="1:22" ht="15.5">
-      <c r="A22" s="48"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="32">
         <v>3.4</v>
       </c>
@@ -9152,7 +8950,7 @@
       <c r="V22" s="35"/>
     </row>
     <row r="23" spans="1:22" ht="15.5">
-      <c r="A23" s="48"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="32">
         <v>3.5</v>
       </c>
@@ -9194,7 +8992,7 @@
       <c r="V23" s="35"/>
     </row>
     <row r="24" spans="1:22" ht="15.5">
-      <c r="A24" s="48"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="32">
         <v>3.6</v>
       </c>
@@ -9232,7 +9030,7 @@
       <c r="V24" s="35"/>
     </row>
     <row r="25" spans="1:22" ht="15.5">
-      <c r="A25" s="48"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="32">
         <v>3.7</v>
       </c>
@@ -9262,7 +9060,7 @@
       <c r="V25" s="35"/>
     </row>
     <row r="26" spans="1:22" ht="15.5">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="54" t="s">
         <v>104</v>
       </c>
       <c r="B26" s="33" t="s">
@@ -9300,7 +9098,7 @@
       <c r="V26" s="35"/>
     </row>
     <row r="27" spans="1:22" ht="15.5">
-      <c r="A27" s="48"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="32">
         <v>4.0999999999999996</v>
       </c>
@@ -9338,7 +9136,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.5">
-      <c r="A28" s="48"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="32">
         <v>4.2</v>
       </c>
@@ -9368,7 +9166,7 @@
       <c r="V28" s="35"/>
     </row>
     <row r="29" spans="1:22" ht="15.5">
-      <c r="A29" s="48"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="32">
         <v>4.3</v>
       </c>
@@ -9396,7 +9194,7 @@
       <c r="V29" s="35"/>
     </row>
     <row r="30" spans="1:22" ht="15.5">
-      <c r="A30" s="48"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="32">
         <v>4.4000000000000004</v>
       </c>
@@ -9424,7 +9222,7 @@
       <c r="V30" s="35"/>
     </row>
     <row r="31" spans="1:22" ht="15.5">
-      <c r="A31" s="48"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="32">
         <v>4.5</v>
       </c>
@@ -9452,7 +9250,7 @@
       <c r="V31" s="35"/>
     </row>
     <row r="32" spans="1:22" ht="15.5">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="54" t="s">
         <v>106</v>
       </c>
       <c r="B32" s="33" t="s">
@@ -9484,7 +9282,7 @@
       <c r="V32" s="35"/>
     </row>
     <row r="33" spans="1:22" ht="15.5">
-      <c r="A33" s="48"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="32">
         <v>5.0999999999999996</v>
       </c>
@@ -9514,7 +9312,7 @@
       <c r="V33" s="35"/>
     </row>
     <row r="34" spans="1:22" ht="15.5">
-      <c r="A34" s="48"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="32">
         <v>5.2</v>
       </c>
@@ -9542,7 +9340,7 @@
       <c r="V34" s="35"/>
     </row>
     <row r="35" spans="1:22" ht="15.5">
-      <c r="A35" s="48"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="32">
         <v>5.3</v>
       </c>
@@ -9586,104 +9384,104 @@
     <mergeCell ref="K2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:V35">
-    <cfRule type="cellIs" dxfId="190" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="26" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="27" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="28" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="29" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="30" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="185" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="21" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="22" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="23" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="24" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="25" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="180" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="16" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="17" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="18" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="19" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="20" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="175" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="11" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="12" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="13" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="14" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="15" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="170" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="6" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="7" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="8" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="9" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="10" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="165" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="2" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="3" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="4" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="5" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9716,54 +9514,54 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="93">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="49" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="28" t="s">
         <v>73</v>
       </c>
       <c r="O2" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="50" t="s">
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
       <c r="V2" s="30" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="31" t="s">
         <v>78</v>
       </c>
@@ -9826,7 +9624,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.5">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="54" t="s">
         <v>98</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -9894,7 +9692,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.5">
-      <c r="A5" s="48"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="32">
         <v>1.1000000000000001</v>
       </c>
@@ -9966,7 +9764,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.5">
-      <c r="A6" s="48"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="32">
         <v>1.2</v>
       </c>
@@ -10012,7 +9810,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.5">
-      <c r="A7" s="48"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="32">
         <v>1.3</v>
       </c>
@@ -10045,7 +9843,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.5">
-      <c r="A8" s="48"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="32">
         <v>1.4</v>
       </c>
@@ -10078,7 +9876,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.5">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="54" t="s">
         <v>102</v>
       </c>
       <c r="B9" s="33" t="s">
@@ -10147,7 +9945,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.5">
-      <c r="A10" s="48"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="32">
         <v>2.1</v>
       </c>
@@ -10213,7 +10011,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.5">
-      <c r="A11" s="48"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="32">
         <v>2.2000000000000002</v>
       </c>
@@ -10279,7 +10077,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="15.5">
-      <c r="A12" s="48"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="32">
         <v>2.2999999999999998</v>
       </c>
@@ -10335,7 +10133,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.5">
-      <c r="A13" s="48"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="32">
         <v>2.4</v>
       </c>
@@ -10385,7 +10183,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.5">
-      <c r="A14" s="48"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="32">
         <v>2.5</v>
       </c>
@@ -10423,7 +10221,7 @@
       <c r="V14" s="35"/>
     </row>
     <row r="15" spans="1:27" ht="15.5">
-      <c r="A15" s="48"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="32">
         <v>2.6</v>
       </c>
@@ -10457,7 +10255,7 @@
       <c r="V15" s="35"/>
     </row>
     <row r="16" spans="1:27" ht="15.5">
-      <c r="A16" s="48"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="32">
         <v>2.7</v>
       </c>
@@ -10485,7 +10283,7 @@
       <c r="V16" s="35"/>
     </row>
     <row r="17" spans="1:22" ht="15.5">
-      <c r="A17" s="48"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="32">
         <v>2.8</v>
       </c>
@@ -10513,7 +10311,7 @@
       <c r="V17" s="35"/>
     </row>
     <row r="18" spans="1:22" ht="15.5">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="54" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="33" t="s">
@@ -10577,7 +10375,7 @@
       <c r="V18" s="35"/>
     </row>
     <row r="19" spans="1:22" ht="15.5">
-      <c r="A19" s="48"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="32">
         <v>3.1</v>
       </c>
@@ -10641,7 +10439,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.5">
-      <c r="A20" s="48"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="32">
         <v>3.2</v>
       </c>
@@ -10699,7 +10497,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.5">
-      <c r="A21" s="48"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="32">
         <v>3.3</v>
       </c>
@@ -10749,7 +10547,7 @@
       <c r="V21" s="35"/>
     </row>
     <row r="22" spans="1:22" ht="15.5">
-      <c r="A22" s="48"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="32">
         <v>3.4</v>
       </c>
@@ -10795,7 +10593,7 @@
       <c r="V22" s="35"/>
     </row>
     <row r="23" spans="1:22" ht="15.5">
-      <c r="A23" s="48"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="32">
         <v>3.5</v>
       </c>
@@ -10837,7 +10635,7 @@
       <c r="V23" s="35"/>
     </row>
     <row r="24" spans="1:22" ht="15.5">
-      <c r="A24" s="48"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="32">
         <v>3.6</v>
       </c>
@@ -10875,7 +10673,7 @@
       <c r="V24" s="35"/>
     </row>
     <row r="25" spans="1:22" ht="15.5">
-      <c r="A25" s="48"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="32">
         <v>3.7</v>
       </c>
@@ -10905,7 +10703,7 @@
       <c r="V25" s="35"/>
     </row>
     <row r="26" spans="1:22" ht="15.5">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="54" t="s">
         <v>104</v>
       </c>
       <c r="B26" s="33" t="s">
@@ -10943,7 +10741,7 @@
       <c r="V26" s="35"/>
     </row>
     <row r="27" spans="1:22" ht="15.5">
-      <c r="A27" s="48"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="32">
         <v>4.0999999999999996</v>
       </c>
@@ -10981,7 +10779,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.5">
-      <c r="A28" s="48"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="32">
         <v>4.2</v>
       </c>
@@ -11011,7 +10809,7 @@
       <c r="V28" s="35"/>
     </row>
     <row r="29" spans="1:22" ht="15.5">
-      <c r="A29" s="48"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="32">
         <v>4.3</v>
       </c>
@@ -11039,7 +10837,7 @@
       <c r="V29" s="35"/>
     </row>
     <row r="30" spans="1:22" ht="15.5">
-      <c r="A30" s="48"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="32">
         <v>4.4000000000000004</v>
       </c>
@@ -11067,7 +10865,7 @@
       <c r="V30" s="35"/>
     </row>
     <row r="31" spans="1:22" ht="15.5">
-      <c r="A31" s="48"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="32">
         <v>4.5</v>
       </c>
@@ -11095,7 +10893,7 @@
       <c r="V31" s="35"/>
     </row>
     <row r="32" spans="1:22" ht="15.5">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="54" t="s">
         <v>106</v>
       </c>
       <c r="B32" s="33" t="s">
@@ -11127,7 +10925,7 @@
       <c r="V32" s="35"/>
     </row>
     <row r="33" spans="1:22" ht="15.5">
-      <c r="A33" s="48"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="32">
         <v>5.0999999999999996</v>
       </c>
@@ -11157,7 +10955,7 @@
       <c r="V33" s="35"/>
     </row>
     <row r="34" spans="1:22" ht="15.5">
-      <c r="A34" s="48"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="32">
         <v>5.2</v>
       </c>
@@ -11185,7 +10983,7 @@
       <c r="V34" s="35"/>
     </row>
     <row r="35" spans="1:22" ht="15.5">
-      <c r="A35" s="48"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="32">
         <v>5.3</v>
       </c>
@@ -11229,104 +11027,104 @@
     <mergeCell ref="K2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:V35">
-    <cfRule type="cellIs" dxfId="160" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="26" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="27" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="28" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="29" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="30" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="155" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="21" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="22" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="23" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="24" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="25" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="150" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="16" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="17" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="18" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="19" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="20" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="145" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="11" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="12" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="13" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="14" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="15" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="140" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="6" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="7" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="8" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="9" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="10" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="135" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="2" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="3" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="4" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="5" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11359,54 +11157,54 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="93">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="49" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="28" t="s">
         <v>73</v>
       </c>
       <c r="O2" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="50" t="s">
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
       <c r="V2" s="30" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="31" t="s">
         <v>78</v>
       </c>
@@ -11469,7 +11267,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.5">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="54" t="s">
         <v>98</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -11537,7 +11335,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.5">
-      <c r="A5" s="48"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="32">
         <v>1.1000000000000001</v>
       </c>
@@ -11609,7 +11407,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.5">
-      <c r="A6" s="48"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="32">
         <v>1.2</v>
       </c>
@@ -11655,7 +11453,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.5">
-      <c r="A7" s="48"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="32">
         <v>1.3</v>
       </c>
@@ -11688,7 +11486,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.5">
-      <c r="A8" s="48"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="32">
         <v>1.4</v>
       </c>
@@ -11721,7 +11519,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.5">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="54" t="s">
         <v>102</v>
       </c>
       <c r="B9" s="33" t="s">
@@ -11790,7 +11588,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.5">
-      <c r="A10" s="48"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="32">
         <v>2.1</v>
       </c>
@@ -11856,7 +11654,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.5">
-      <c r="A11" s="48"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="32">
         <v>2.2000000000000002</v>
       </c>
@@ -11922,7 +11720,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="15.5">
-      <c r="A12" s="48"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="32">
         <v>2.2999999999999998</v>
       </c>
@@ -11978,7 +11776,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.5">
-      <c r="A13" s="48"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="32">
         <v>2.4</v>
       </c>
@@ -12028,7 +11826,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.5">
-      <c r="A14" s="48"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="32">
         <v>2.5</v>
       </c>
@@ -12066,7 +11864,7 @@
       <c r="V14" s="35"/>
     </row>
     <row r="15" spans="1:27" ht="15.5">
-      <c r="A15" s="48"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="32">
         <v>2.6</v>
       </c>
@@ -12100,7 +11898,7 @@
       <c r="V15" s="35"/>
     </row>
     <row r="16" spans="1:27" ht="15.5">
-      <c r="A16" s="48"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="32">
         <v>2.7</v>
       </c>
@@ -12128,7 +11926,7 @@
       <c r="V16" s="35"/>
     </row>
     <row r="17" spans="1:22" ht="15.5">
-      <c r="A17" s="48"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="32">
         <v>2.8</v>
       </c>
@@ -12156,7 +11954,7 @@
       <c r="V17" s="35"/>
     </row>
     <row r="18" spans="1:22" ht="15.5">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="54" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="33" t="s">
@@ -12220,7 +12018,7 @@
       <c r="V18" s="35"/>
     </row>
     <row r="19" spans="1:22" ht="15.5">
-      <c r="A19" s="48"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="32">
         <v>3.1</v>
       </c>
@@ -12284,7 +12082,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.5">
-      <c r="A20" s="48"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="32">
         <v>3.2</v>
       </c>
@@ -12342,7 +12140,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.5">
-      <c r="A21" s="48"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="32">
         <v>3.3</v>
       </c>
@@ -12392,7 +12190,7 @@
       <c r="V21" s="35"/>
     </row>
     <row r="22" spans="1:22" ht="15.5">
-      <c r="A22" s="48"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="32">
         <v>3.4</v>
       </c>
@@ -12438,7 +12236,7 @@
       <c r="V22" s="35"/>
     </row>
     <row r="23" spans="1:22" ht="15.5">
-      <c r="A23" s="48"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="32">
         <v>3.5</v>
       </c>
@@ -12480,7 +12278,7 @@
       <c r="V23" s="35"/>
     </row>
     <row r="24" spans="1:22" ht="15.5">
-      <c r="A24" s="48"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="32">
         <v>3.6</v>
       </c>
@@ -12518,7 +12316,7 @@
       <c r="V24" s="35"/>
     </row>
     <row r="25" spans="1:22" ht="15.5">
-      <c r="A25" s="48"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="32">
         <v>3.7</v>
       </c>
@@ -12548,7 +12346,7 @@
       <c r="V25" s="35"/>
     </row>
     <row r="26" spans="1:22" ht="15.5">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="54" t="s">
         <v>104</v>
       </c>
       <c r="B26" s="33" t="s">
@@ -12586,7 +12384,7 @@
       <c r="V26" s="35"/>
     </row>
     <row r="27" spans="1:22" ht="15.5">
-      <c r="A27" s="48"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="32">
         <v>4.0999999999999996</v>
       </c>
@@ -12624,7 +12422,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.5">
-      <c r="A28" s="48"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="32">
         <v>4.2</v>
       </c>
@@ -12654,7 +12452,7 @@
       <c r="V28" s="35"/>
     </row>
     <row r="29" spans="1:22" ht="15.5">
-      <c r="A29" s="48"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="32">
         <v>4.3</v>
       </c>
@@ -12682,7 +12480,7 @@
       <c r="V29" s="35"/>
     </row>
     <row r="30" spans="1:22" ht="15.5">
-      <c r="A30" s="48"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="32">
         <v>4.4000000000000004</v>
       </c>
@@ -12710,7 +12508,7 @@
       <c r="V30" s="35"/>
     </row>
     <row r="31" spans="1:22" ht="15.5">
-      <c r="A31" s="48"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="32">
         <v>4.5</v>
       </c>
@@ -12738,7 +12536,7 @@
       <c r="V31" s="35"/>
     </row>
     <row r="32" spans="1:22" ht="15.5">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="54" t="s">
         <v>106</v>
       </c>
       <c r="B32" s="33" t="s">
@@ -12770,7 +12568,7 @@
       <c r="V32" s="35"/>
     </row>
     <row r="33" spans="1:22" ht="15.5">
-      <c r="A33" s="48"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="32">
         <v>5.0999999999999996</v>
       </c>
@@ -12800,7 +12598,7 @@
       <c r="V33" s="35"/>
     </row>
     <row r="34" spans="1:22" ht="15.5">
-      <c r="A34" s="48"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="32">
         <v>5.2</v>
       </c>
@@ -12828,7 +12626,7 @@
       <c r="V34" s="35"/>
     </row>
     <row r="35" spans="1:22" ht="15.5">
-      <c r="A35" s="48"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="32">
         <v>5.3</v>
       </c>
@@ -12872,104 +12670,104 @@
     <mergeCell ref="K2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:V35">
-    <cfRule type="cellIs" dxfId="130" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="26" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="27" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="28" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="29" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="30" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="125" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="21" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="22" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="23" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="24" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="25" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="120" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="16" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="17" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="18" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="19" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="20" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="115" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="11" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="12" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="13" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="14" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="15" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="110" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="6" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="7" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="8" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="9" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="10" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="105" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="2" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="3" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="4" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="5" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13002,54 +12800,54 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="93">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="49" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="28" t="s">
         <v>73</v>
       </c>
       <c r="O2" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="50" t="s">
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
       <c r="V2" s="30" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="31" t="s">
         <v>78</v>
       </c>
@@ -13112,7 +12910,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.5">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="54" t="s">
         <v>98</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -13180,7 +12978,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.5">
-      <c r="A5" s="48"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="32">
         <v>1.1000000000000001</v>
       </c>
@@ -13252,7 +13050,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.5">
-      <c r="A6" s="48"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="32">
         <v>1.2</v>
       </c>
@@ -13298,7 +13096,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.5">
-      <c r="A7" s="48"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="32">
         <v>1.3</v>
       </c>
@@ -13331,7 +13129,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.5">
-      <c r="A8" s="48"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="32">
         <v>1.4</v>
       </c>
@@ -13364,7 +13162,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.5">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="54" t="s">
         <v>102</v>
       </c>
       <c r="B9" s="33" t="s">
@@ -13433,7 +13231,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.5">
-      <c r="A10" s="48"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="32">
         <v>2.1</v>
       </c>
@@ -13499,7 +13297,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.5">
-      <c r="A11" s="48"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="32">
         <v>2.2000000000000002</v>
       </c>
@@ -13565,7 +13363,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="15.5">
-      <c r="A12" s="48"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="32">
         <v>2.2999999999999998</v>
       </c>
@@ -13621,7 +13419,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.5">
-      <c r="A13" s="48"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="32">
         <v>2.4</v>
       </c>
@@ -13671,7 +13469,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.5">
-      <c r="A14" s="48"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="32">
         <v>2.5</v>
       </c>
@@ -13709,7 +13507,7 @@
       <c r="V14" s="35"/>
     </row>
     <row r="15" spans="1:27" ht="15.5">
-      <c r="A15" s="48"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="32">
         <v>2.6</v>
       </c>
@@ -13743,7 +13541,7 @@
       <c r="V15" s="35"/>
     </row>
     <row r="16" spans="1:27" ht="15.5">
-      <c r="A16" s="48"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="32">
         <v>2.7</v>
       </c>
@@ -13771,7 +13569,7 @@
       <c r="V16" s="35"/>
     </row>
     <row r="17" spans="1:22" ht="15.5">
-      <c r="A17" s="48"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="32">
         <v>2.8</v>
       </c>
@@ -13799,7 +13597,7 @@
       <c r="V17" s="35"/>
     </row>
     <row r="18" spans="1:22" ht="15.5">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="54" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="33" t="s">
@@ -13863,7 +13661,7 @@
       <c r="V18" s="35"/>
     </row>
     <row r="19" spans="1:22" ht="15.5">
-      <c r="A19" s="48"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="32">
         <v>3.1</v>
       </c>
@@ -13927,7 +13725,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.5">
-      <c r="A20" s="48"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="32">
         <v>3.2</v>
       </c>
@@ -13985,7 +13783,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.5">
-      <c r="A21" s="48"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="32">
         <v>3.3</v>
       </c>
@@ -14035,7 +13833,7 @@
       <c r="V21" s="35"/>
     </row>
     <row r="22" spans="1:22" ht="15.5">
-      <c r="A22" s="48"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="32">
         <v>3.4</v>
       </c>
@@ -14081,7 +13879,7 @@
       <c r="V22" s="35"/>
     </row>
     <row r="23" spans="1:22" ht="15.5">
-      <c r="A23" s="48"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="32">
         <v>3.5</v>
       </c>
@@ -14123,7 +13921,7 @@
       <c r="V23" s="35"/>
     </row>
     <row r="24" spans="1:22" ht="15.5">
-      <c r="A24" s="48"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="32">
         <v>3.6</v>
       </c>
@@ -14161,7 +13959,7 @@
       <c r="V24" s="35"/>
     </row>
     <row r="25" spans="1:22" ht="15.5">
-      <c r="A25" s="48"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="32">
         <v>3.7</v>
       </c>
@@ -14191,7 +13989,7 @@
       <c r="V25" s="35"/>
     </row>
     <row r="26" spans="1:22" ht="15.5">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="54" t="s">
         <v>104</v>
       </c>
       <c r="B26" s="33" t="s">
@@ -14229,7 +14027,7 @@
       <c r="V26" s="35"/>
     </row>
     <row r="27" spans="1:22" ht="15.5">
-      <c r="A27" s="48"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="32">
         <v>4.0999999999999996</v>
       </c>
@@ -14267,7 +14065,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.5">
-      <c r="A28" s="48"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="32">
         <v>4.2</v>
       </c>
@@ -14297,7 +14095,7 @@
       <c r="V28" s="35"/>
     </row>
     <row r="29" spans="1:22" ht="15.5">
-      <c r="A29" s="48"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="32">
         <v>4.3</v>
       </c>
@@ -14325,7 +14123,7 @@
       <c r="V29" s="35"/>
     </row>
     <row r="30" spans="1:22" ht="15.5">
-      <c r="A30" s="48"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="32">
         <v>4.4000000000000004</v>
       </c>
@@ -14353,7 +14151,7 @@
       <c r="V30" s="35"/>
     </row>
     <row r="31" spans="1:22" ht="15.5">
-      <c r="A31" s="48"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="32">
         <v>4.5</v>
       </c>
@@ -14381,7 +14179,7 @@
       <c r="V31" s="35"/>
     </row>
     <row r="32" spans="1:22" ht="15.5">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="54" t="s">
         <v>106</v>
       </c>
       <c r="B32" s="33" t="s">
@@ -14413,7 +14211,7 @@
       <c r="V32" s="35"/>
     </row>
     <row r="33" spans="1:22" ht="15.5">
-      <c r="A33" s="48"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="32">
         <v>5.0999999999999996</v>
       </c>
@@ -14443,7 +14241,7 @@
       <c r="V33" s="35"/>
     </row>
     <row r="34" spans="1:22" ht="15.5">
-      <c r="A34" s="48"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="32">
         <v>5.2</v>
       </c>
@@ -14471,7 +14269,7 @@
       <c r="V34" s="35"/>
     </row>
     <row r="35" spans="1:22" ht="15.5">
-      <c r="A35" s="48"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="32">
         <v>5.3</v>
       </c>
@@ -14515,104 +14313,104 @@
     <mergeCell ref="K2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:V35">
-    <cfRule type="cellIs" dxfId="100" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="26" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="27" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="28" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="29" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="30" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="95" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="21" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="22" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="23" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="24" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="25" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="90" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="16" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="17" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="18" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="19" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="20" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="85" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="11" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="12" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="13" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="14" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="15" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="80" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="6" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="7" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="8" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="9" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="10" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="2" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="3" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="4" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="5" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14645,54 +14443,54 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="93">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="49" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="28" t="s">
         <v>73</v>
       </c>
       <c r="O2" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="50" t="s">
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
       <c r="V2" s="30" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="31" t="s">
         <v>78</v>
       </c>
@@ -14755,7 +14553,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.5">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="54" t="s">
         <v>98</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -14823,7 +14621,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.5">
-      <c r="A5" s="48"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="32">
         <v>1.1000000000000001</v>
       </c>
@@ -14895,7 +14693,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.5">
-      <c r="A6" s="48"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="32">
         <v>1.2</v>
       </c>
@@ -14941,7 +14739,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.5">
-      <c r="A7" s="48"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="32">
         <v>1.3</v>
       </c>
@@ -14974,7 +14772,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.5">
-      <c r="A8" s="48"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="32">
         <v>1.4</v>
       </c>
@@ -15007,7 +14805,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.5">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="54" t="s">
         <v>102</v>
       </c>
       <c r="B9" s="33" t="s">
@@ -15076,7 +14874,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.5">
-      <c r="A10" s="48"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="32">
         <v>2.1</v>
       </c>
@@ -15142,7 +14940,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.5">
-      <c r="A11" s="48"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="32">
         <v>2.2000000000000002</v>
       </c>
@@ -15208,7 +15006,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="15.5">
-      <c r="A12" s="48"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="32">
         <v>2.2999999999999998</v>
       </c>
@@ -15264,7 +15062,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.5">
-      <c r="A13" s="48"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="32">
         <v>2.4</v>
       </c>
@@ -15314,7 +15112,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.5">
-      <c r="A14" s="48"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="32">
         <v>2.5</v>
       </c>
@@ -15352,7 +15150,7 @@
       <c r="V14" s="35"/>
     </row>
     <row r="15" spans="1:27" ht="15.5">
-      <c r="A15" s="48"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="32">
         <v>2.6</v>
       </c>
@@ -15386,7 +15184,7 @@
       <c r="V15" s="35"/>
     </row>
     <row r="16" spans="1:27" ht="15.5">
-      <c r="A16" s="48"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="32">
         <v>2.7</v>
       </c>
@@ -15414,7 +15212,7 @@
       <c r="V16" s="35"/>
     </row>
     <row r="17" spans="1:22" ht="15.5">
-      <c r="A17" s="48"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="32">
         <v>2.8</v>
       </c>
@@ -15442,7 +15240,7 @@
       <c r="V17" s="35"/>
     </row>
     <row r="18" spans="1:22" ht="15.5">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="54" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="33" t="s">
@@ -15506,7 +15304,7 @@
       <c r="V18" s="35"/>
     </row>
     <row r="19" spans="1:22" ht="15.5">
-      <c r="A19" s="48"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="32">
         <v>3.1</v>
       </c>
@@ -15570,7 +15368,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.5">
-      <c r="A20" s="48"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="32">
         <v>3.2</v>
       </c>
@@ -15628,7 +15426,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.5">
-      <c r="A21" s="48"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="32">
         <v>3.3</v>
       </c>
@@ -15678,7 +15476,7 @@
       <c r="V21" s="35"/>
     </row>
     <row r="22" spans="1:22" ht="15.5">
-      <c r="A22" s="48"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="32">
         <v>3.4</v>
       </c>
@@ -15724,7 +15522,7 @@
       <c r="V22" s="35"/>
     </row>
     <row r="23" spans="1:22" ht="15.5">
-      <c r="A23" s="48"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="32">
         <v>3.5</v>
       </c>
@@ -15766,7 +15564,7 @@
       <c r="V23" s="35"/>
     </row>
     <row r="24" spans="1:22" ht="15.5">
-      <c r="A24" s="48"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="32">
         <v>3.6</v>
       </c>
@@ -15804,7 +15602,7 @@
       <c r="V24" s="35"/>
     </row>
     <row r="25" spans="1:22" ht="15.5">
-      <c r="A25" s="48"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="32">
         <v>3.7</v>
       </c>
@@ -15834,7 +15632,7 @@
       <c r="V25" s="35"/>
     </row>
     <row r="26" spans="1:22" ht="15.5">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="54" t="s">
         <v>104</v>
       </c>
       <c r="B26" s="33" t="s">
@@ -15872,7 +15670,7 @@
       <c r="V26" s="35"/>
     </row>
     <row r="27" spans="1:22" ht="15.5">
-      <c r="A27" s="48"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="32">
         <v>4.0999999999999996</v>
       </c>
@@ -15910,7 +15708,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.5">
-      <c r="A28" s="48"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="32">
         <v>4.2</v>
       </c>
@@ -15940,7 +15738,7 @@
       <c r="V28" s="35"/>
     </row>
     <row r="29" spans="1:22" ht="15.5">
-      <c r="A29" s="48"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="32">
         <v>4.3</v>
       </c>
@@ -15968,7 +15766,7 @@
       <c r="V29" s="35"/>
     </row>
     <row r="30" spans="1:22" ht="15.5">
-      <c r="A30" s="48"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="32">
         <v>4.4000000000000004</v>
       </c>
@@ -15996,7 +15794,7 @@
       <c r="V30" s="35"/>
     </row>
     <row r="31" spans="1:22" ht="15.5">
-      <c r="A31" s="48"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="32">
         <v>4.5</v>
       </c>
@@ -16024,7 +15822,7 @@
       <c r="V31" s="35"/>
     </row>
     <row r="32" spans="1:22" ht="15.5">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="54" t="s">
         <v>106</v>
       </c>
       <c r="B32" s="33" t="s">
@@ -16056,7 +15854,7 @@
       <c r="V32" s="35"/>
     </row>
     <row r="33" spans="1:22" ht="15.5">
-      <c r="A33" s="48"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="32">
         <v>5.0999999999999996</v>
       </c>
@@ -16086,7 +15884,7 @@
       <c r="V33" s="35"/>
     </row>
     <row r="34" spans="1:22" ht="15.5">
-      <c r="A34" s="48"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="32">
         <v>5.2</v>
       </c>
@@ -16114,7 +15912,7 @@
       <c r="V34" s="35"/>
     </row>
     <row r="35" spans="1:22" ht="15.5">
-      <c r="A35" s="48"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="32">
         <v>5.3</v>
       </c>
@@ -16158,104 +15956,104 @@
     <mergeCell ref="K2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:V35">
-    <cfRule type="cellIs" dxfId="70" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="26" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="27" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="28" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="29" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="30" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="65" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="21" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="22" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="23" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="24" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="25" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="60" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="17" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="18" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="19" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="20" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="55" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="12" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="13" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="14" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="15" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="50" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="8" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="9" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16268,7 +16066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E05960-3F9D-4C59-BD13-329D61D94FD0}">
   <dimension ref="A2:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -16337,7 +16135,7 @@
       <c r="P2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="66" t="s">
+      <c r="Q2" s="53" t="s">
         <v>61</v>
       </c>
     </row>
@@ -16379,18 +16177,18 @@
       <c r="F4" s="67"/>
       <c r="G4" s="67"/>
       <c r="H4" s="67"/>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="65" t="s">
+      <c r="J4" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
       <c r="O4" s="17"/>
       <c r="P4" s="21"/>
       <c r="Q4" s="17"/>
@@ -16399,20 +16197,20 @@
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="63"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
@@ -16427,14 +16225,14 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58" t="s">
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="48" t="s">
         <v>47</v>
       </c>
       <c r="I6" s="17"/>
@@ -16454,7 +16252,7 @@
       <c r="B7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="50" t="s">
         <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -16472,10 +16270,10 @@
       <c r="H7" s="20"/>
       <c r="I7" s="17"/>
       <c r="J7" s="20"/>
-      <c r="K7" s="59"/>
+      <c r="K7" s="49"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="59"/>
+      <c r="N7" s="49"/>
       <c r="O7" s="20"/>
       <c r="P7" s="17"/>
       <c r="Q7" s="17"/>
@@ -16501,21 +16299,21 @@
       <c r="F19" s="67"/>
       <c r="G19" s="67"/>
       <c r="H19" s="67"/>
-      <c r="I19" s="65" t="s">
+      <c r="I19" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="65" t="s">
+      <c r="J19" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="64" t="s">
+      <c r="K19" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="54"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -16526,57 +16324,57 @@
     <mergeCell ref="C19:H19"/>
   </mergeCells>
   <conditionalFormatting sqref="O3">
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"U"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="cellIs" dxfId="26" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"NY"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:O6">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"NY"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I7 J6">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q7">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16700,7 +16498,7 @@
       <c r="P8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="66" t="s">
+      <c r="Q8" s="53" t="s">
         <v>61</v>
       </c>
     </row>
@@ -16812,8 +16610,8 @@
   </sheetPr>
   <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -16829,54 +16627,54 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="93">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="49" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="28" t="s">
         <v>73</v>
       </c>
       <c r="O2" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="50" t="s">
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
       <c r="V2" s="30" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="31" t="s">
         <v>78</v>
       </c>
@@ -16939,7 +16737,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.5">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="54" t="s">
         <v>98</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -17007,7 +16805,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.5">
-      <c r="A5" s="48"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="32">
         <v>1.1000000000000001</v>
       </c>
@@ -17079,7 +16877,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.5">
-      <c r="A6" s="48"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="32">
         <v>1.2</v>
       </c>
@@ -17151,7 +16949,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.5">
-      <c r="A7" s="48"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="32">
         <v>1.3</v>
       </c>
@@ -17194,7 +16992,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.5">
-      <c r="A8" s="48"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="32">
         <v>1.4</v>
       </c>
@@ -17227,7 +17025,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.5">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="54" t="s">
         <v>102</v>
       </c>
       <c r="B9" s="33" t="s">
@@ -17260,7 +17058,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.5">
-      <c r="A10" s="48"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="32">
         <v>2.1</v>
       </c>
@@ -17326,7 +17124,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.5">
-      <c r="A11" s="48"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="32">
         <v>2.2000000000000002</v>
       </c>
@@ -17392,7 +17190,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="15.5">
-      <c r="A12" s="48"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="32">
         <v>2.2999999999999998</v>
       </c>
@@ -17458,7 +17256,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.5">
-      <c r="A13" s="48"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="32">
         <v>2.4</v>
       </c>
@@ -17514,7 +17312,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.5">
-      <c r="A14" s="48"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="32">
         <v>2.5</v>
       </c>
@@ -17549,9 +17347,7 @@
       <c r="Q14" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="R14" s="33" t="s">
-        <v>100</v>
-      </c>
+      <c r="R14" s="33"/>
       <c r="S14" s="33"/>
       <c r="T14" s="33" t="s">
         <v>100</v>
@@ -17562,7 +17358,7 @@
       <c r="V14" s="35"/>
     </row>
     <row r="15" spans="1:27" ht="15.5">
-      <c r="A15" s="48"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="32">
         <v>2.6</v>
       </c>
@@ -17600,7 +17396,7 @@
       <c r="V15" s="35"/>
     </row>
     <row r="16" spans="1:27" ht="15.5">
-      <c r="A16" s="48"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="32">
         <v>2.7</v>
       </c>
@@ -17634,7 +17430,7 @@
       <c r="V16" s="35"/>
     </row>
     <row r="17" spans="1:22" ht="15.5">
-      <c r="A17" s="48"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="32">
         <v>2.8</v>
       </c>
@@ -17662,7 +17458,7 @@
       <c r="V17" s="35"/>
     </row>
     <row r="18" spans="1:22" ht="15.5">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="54" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="33" t="s">
@@ -17692,7 +17488,7 @@
       <c r="V18" s="35"/>
     </row>
     <row r="19" spans="1:22" ht="15.5">
-      <c r="A19" s="48"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="32">
         <v>3.1</v>
       </c>
@@ -17756,7 +17552,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.5">
-      <c r="A20" s="48"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="32">
         <v>3.2</v>
       </c>
@@ -17820,7 +17616,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.5">
-      <c r="A21" s="48"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="32">
         <v>3.3</v>
       </c>
@@ -17876,7 +17672,7 @@
       <c r="V21" s="35"/>
     </row>
     <row r="22" spans="1:22" ht="15.5">
-      <c r="A22" s="48"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="32">
         <v>3.4</v>
       </c>
@@ -17926,7 +17722,7 @@
       <c r="V22" s="35"/>
     </row>
     <row r="23" spans="1:22" ht="15.5">
-      <c r="A23" s="48"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="32">
         <v>3.5</v>
       </c>
@@ -17972,7 +17768,7 @@
       <c r="V23" s="35"/>
     </row>
     <row r="24" spans="1:22" ht="15.5">
-      <c r="A24" s="48"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="32">
         <v>3.6</v>
       </c>
@@ -18014,7 +17810,7 @@
       <c r="V24" s="35"/>
     </row>
     <row r="25" spans="1:22" ht="15.5">
-      <c r="A25" s="48"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="32">
         <v>3.7</v>
       </c>
@@ -18052,7 +17848,7 @@
       <c r="V25" s="35"/>
     </row>
     <row r="26" spans="1:22" ht="15.5">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="54" t="s">
         <v>104</v>
       </c>
       <c r="B26" s="33" t="s">
@@ -18084,7 +17880,7 @@
       <c r="V26" s="35"/>
     </row>
     <row r="27" spans="1:22" ht="15.5">
-      <c r="A27" s="48"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="32">
         <v>4.0999999999999996</v>
       </c>
@@ -18122,7 +17918,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.5">
-      <c r="A28" s="48"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="32">
         <v>4.2</v>
       </c>
@@ -18158,7 +17954,7 @@
       <c r="V28" s="35"/>
     </row>
     <row r="29" spans="1:22" ht="15.5">
-      <c r="A29" s="48"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="32">
         <v>4.3</v>
       </c>
@@ -18188,7 +17984,7 @@
       <c r="V29" s="35"/>
     </row>
     <row r="30" spans="1:22" ht="15.5">
-      <c r="A30" s="48"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="32">
         <v>4.4000000000000004</v>
       </c>
@@ -18216,7 +18012,7 @@
       <c r="V30" s="35"/>
     </row>
     <row r="31" spans="1:22" ht="15.5">
-      <c r="A31" s="48"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="32">
         <v>4.5</v>
       </c>
@@ -18244,7 +18040,7 @@
       <c r="V31" s="35"/>
     </row>
     <row r="32" spans="1:22" ht="15.5">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="54" t="s">
         <v>106</v>
       </c>
       <c r="B32" s="33" t="s">
@@ -18274,7 +18070,7 @@
       <c r="V32" s="35"/>
     </row>
     <row r="33" spans="1:22" ht="15.5">
-      <c r="A33" s="48"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="32">
         <v>5.0999999999999996</v>
       </c>
@@ -18304,7 +18100,7 @@
       <c r="V33" s="35"/>
     </row>
     <row r="34" spans="1:22" ht="15.5">
-      <c r="A34" s="48"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="32">
         <v>5.2</v>
       </c>
@@ -18334,7 +18130,7 @@
       <c r="V34" s="35"/>
     </row>
     <row r="35" spans="1:22" ht="15.5">
-      <c r="A35" s="48"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="32">
         <v>5.3</v>
       </c>
@@ -18466,104 +18262,104 @@
     <mergeCell ref="K2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:V35">
-    <cfRule type="cellIs" dxfId="415" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="26" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="27" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="28" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="29" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="30" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="410" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="21" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="22" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="23" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="407" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="24" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="25" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="405" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="16" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="17" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="18" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="19" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="20" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="400" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="11" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="12" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="13" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="14" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="15" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="395" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="6" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="7" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="8" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="9" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="10" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="390" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="389" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="2" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="3" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="4" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="5" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18612,10 +18408,10 @@
       <c r="Q1" s="44"/>
     </row>
     <row r="2" spans="1:17" ht="68.150000000000006" customHeight="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="57" t="s">
         <v>68</v>
       </c>
       <c r="C2" s="31" t="s">
@@ -18663,8 +18459,8 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="31" t="s">
         <v>78</v>
       </c>
@@ -18710,7 +18506,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="54" t="s">
         <v>98</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -18733,7 +18529,7 @@
       <c r="Q4" s="34"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="48"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="32">
         <v>1.1000000000000001</v>
       </c>
@@ -18782,7 +18578,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="48"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="32">
         <v>1.2</v>
       </c>
@@ -18803,7 +18599,7 @@
       <c r="Q6" s="33"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="48"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="32">
         <v>1.3</v>
       </c>
@@ -18824,7 +18620,7 @@
       <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="48"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="32">
         <v>1.4</v>
       </c>
@@ -18845,7 +18641,7 @@
       <c r="Q8" s="33"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="54" t="s">
         <v>102</v>
       </c>
       <c r="B9" s="33" t="s">
@@ -18868,7 +18664,7 @@
       <c r="Q9" s="34"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="48"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="32">
         <v>2.1</v>
       </c>
@@ -18917,7 +18713,7 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="48"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="32">
         <v>2.2000000000000002</v>
       </c>
@@ -18966,7 +18762,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="48"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="32">
         <v>2.2999999999999998</v>
       </c>
@@ -19001,7 +18797,7 @@
       <c r="Q12" s="33"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="48"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="32">
         <v>2.4</v>
       </c>
@@ -19036,7 +18832,7 @@
       <c r="Q13" s="33"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="48"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="32">
         <v>2.5</v>
       </c>
@@ -19057,7 +18853,7 @@
       <c r="Q14" s="33"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="48"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="32">
         <v>2.6</v>
       </c>
@@ -19078,7 +18874,7 @@
       <c r="Q15" s="33"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="48"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="32">
         <v>2.7</v>
       </c>
@@ -19099,7 +18895,7 @@
       <c r="Q16" s="33"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="48"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="32">
         <v>2.8</v>
       </c>
@@ -19120,7 +18916,7 @@
       <c r="Q17" s="33"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="54" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="33" t="s">
@@ -19143,7 +18939,7 @@
       <c r="Q18" s="34"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="48"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="32">
         <v>3.1</v>
       </c>
@@ -19192,7 +18988,7 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="48"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="32">
         <v>3.2</v>
       </c>
@@ -19241,7 +19037,7 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="48"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="32">
         <v>3.3</v>
       </c>
@@ -19276,7 +19072,7 @@
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="48"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="32">
         <v>3.4</v>
       </c>
@@ -19297,7 +19093,7 @@
       <c r="Q22" s="33"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="48"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="32">
         <v>3.5</v>
       </c>
@@ -19318,7 +19114,7 @@
       <c r="Q23" s="33"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="48"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="32">
         <v>3.6</v>
       </c>
@@ -19339,7 +19135,7 @@
       <c r="Q24" s="33"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="48"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="32">
         <v>3.7</v>
       </c>
@@ -19360,7 +19156,7 @@
       <c r="Q25" s="33"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="54" t="s">
         <v>104</v>
       </c>
       <c r="B26" s="33" t="s">
@@ -19383,7 +19179,7 @@
       <c r="Q26" s="34"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="48"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="32">
         <v>4.0999999999999996</v>
       </c>
@@ -19418,7 +19214,7 @@
       <c r="Q27" s="33"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="48"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="32">
         <v>4.2</v>
       </c>
@@ -19439,7 +19235,7 @@
       <c r="Q28" s="33"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="48"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="32">
         <v>4.3</v>
       </c>
@@ -19460,7 +19256,7 @@
       <c r="Q29" s="33"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="48"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="32">
         <v>4.4000000000000004</v>
       </c>
@@ -19481,7 +19277,7 @@
       <c r="Q30" s="33"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="48"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="32">
         <v>4.5</v>
       </c>
@@ -19502,7 +19298,7 @@
       <c r="Q31" s="33"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="54" t="s">
         <v>106</v>
       </c>
       <c r="B32" s="33" t="s">
@@ -19525,7 +19321,7 @@
       <c r="Q32" s="33"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="48"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="32">
         <v>5.0999999999999996</v>
       </c>
@@ -19546,7 +19342,7 @@
       <c r="Q33" s="33"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="48"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="32">
         <v>5.2</v>
       </c>
@@ -19567,7 +19363,7 @@
       <c r="Q34" s="33"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="48"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="32">
         <v>5.3</v>
       </c>
@@ -19598,155 +19394,155 @@
     <mergeCell ref="A26:A31"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:I20 C4:D26 C28:D35 C27:I27">
-    <cfRule type="cellIs" dxfId="385" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="41" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="42" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="383" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="43" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="44" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="45" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="380" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="36" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="37" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="38" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="39" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="40" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="375" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="31" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="32" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="33" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="34" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="371" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="35" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="370" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="26" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="27" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="28" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="29" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="30" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="365" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="21" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="22" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="23" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="24" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="25" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="360" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="16" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="359" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="17" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="18" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="19" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="20" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:I4 E21:I26 E28:I35">
-    <cfRule type="cellIs" dxfId="355" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="11" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="12" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="13" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="14" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="15" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:L35">
-    <cfRule type="cellIs" dxfId="350" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="6" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="7" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="8" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="347" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="9" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="10" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:Q35">
-    <cfRule type="cellIs" dxfId="345" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="2" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="3" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="4" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="5" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19810,54 +19606,54 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="93">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="49" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="28" t="s">
         <v>73</v>
       </c>
       <c r="O2" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="50" t="s">
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
       <c r="V2" s="30" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="31" t="s">
         <v>78</v>
       </c>
@@ -19920,7 +19716,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.5">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="54" t="s">
         <v>98</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -19988,7 +19784,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.5">
-      <c r="A5" s="48"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="32">
         <v>1.1000000000000001</v>
       </c>
@@ -20060,7 +19856,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.5">
-      <c r="A6" s="48"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="32">
         <v>1.2</v>
       </c>
@@ -20106,7 +19902,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.5">
-      <c r="A7" s="48"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="32">
         <v>1.3</v>
       </c>
@@ -20139,7 +19935,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.5">
-      <c r="A8" s="48"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="32">
         <v>1.4</v>
       </c>
@@ -20172,7 +19968,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.5">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="54" t="s">
         <v>102</v>
       </c>
       <c r="B9" s="33" t="s">
@@ -20241,7 +20037,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.5">
-      <c r="A10" s="48"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="32">
         <v>2.1</v>
       </c>
@@ -20307,7 +20103,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.5">
-      <c r="A11" s="48"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="32">
         <v>2.2000000000000002</v>
       </c>
@@ -20373,7 +20169,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="15.5">
-      <c r="A12" s="48"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="32">
         <v>2.2999999999999998</v>
       </c>
@@ -20429,7 +20225,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.5">
-      <c r="A13" s="48"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="32">
         <v>2.4</v>
       </c>
@@ -20479,7 +20275,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.5">
-      <c r="A14" s="48"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="32">
         <v>2.5</v>
       </c>
@@ -20517,7 +20313,7 @@
       <c r="V14" s="35"/>
     </row>
     <row r="15" spans="1:27" ht="15.5">
-      <c r="A15" s="48"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="32">
         <v>2.6</v>
       </c>
@@ -20551,7 +20347,7 @@
       <c r="V15" s="35"/>
     </row>
     <row r="16" spans="1:27" ht="15.5">
-      <c r="A16" s="48"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="32">
         <v>2.7</v>
       </c>
@@ -20579,7 +20375,7 @@
       <c r="V16" s="35"/>
     </row>
     <row r="17" spans="1:22" ht="15.5">
-      <c r="A17" s="48"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="32">
         <v>2.8</v>
       </c>
@@ -20607,7 +20403,7 @@
       <c r="V17" s="35"/>
     </row>
     <row r="18" spans="1:22" ht="15.5">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="54" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="33" t="s">
@@ -20671,7 +20467,7 @@
       <c r="V18" s="35"/>
     </row>
     <row r="19" spans="1:22" ht="15.5">
-      <c r="A19" s="48"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="32">
         <v>3.1</v>
       </c>
@@ -20735,7 +20531,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.5">
-      <c r="A20" s="48"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="32">
         <v>3.2</v>
       </c>
@@ -20793,7 +20589,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.5">
-      <c r="A21" s="48"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="32">
         <v>3.3</v>
       </c>
@@ -20843,7 +20639,7 @@
       <c r="V21" s="35"/>
     </row>
     <row r="22" spans="1:22" ht="15.5">
-      <c r="A22" s="48"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="32">
         <v>3.4</v>
       </c>
@@ -20889,7 +20685,7 @@
       <c r="V22" s="35"/>
     </row>
     <row r="23" spans="1:22" ht="15.5">
-      <c r="A23" s="48"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="32">
         <v>3.5</v>
       </c>
@@ -20931,7 +20727,7 @@
       <c r="V23" s="35"/>
     </row>
     <row r="24" spans="1:22" ht="15.5">
-      <c r="A24" s="48"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="32">
         <v>3.6</v>
       </c>
@@ -20969,7 +20765,7 @@
       <c r="V24" s="35"/>
     </row>
     <row r="25" spans="1:22" ht="15.5">
-      <c r="A25" s="48"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="32">
         <v>3.7</v>
       </c>
@@ -20999,7 +20795,7 @@
       <c r="V25" s="35"/>
     </row>
     <row r="26" spans="1:22" ht="15.5">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="54" t="s">
         <v>104</v>
       </c>
       <c r="B26" s="33" t="s">
@@ -21037,7 +20833,7 @@
       <c r="V26" s="35"/>
     </row>
     <row r="27" spans="1:22" ht="15.5">
-      <c r="A27" s="48"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="32">
         <v>4.0999999999999996</v>
       </c>
@@ -21075,7 +20871,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.5">
-      <c r="A28" s="48"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="32">
         <v>4.2</v>
       </c>
@@ -21105,7 +20901,7 @@
       <c r="V28" s="35"/>
     </row>
     <row r="29" spans="1:22" ht="15.5">
-      <c r="A29" s="48"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="32">
         <v>4.3</v>
       </c>
@@ -21133,7 +20929,7 @@
       <c r="V29" s="35"/>
     </row>
     <row r="30" spans="1:22" ht="15.5">
-      <c r="A30" s="48"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="32">
         <v>4.4000000000000004</v>
       </c>
@@ -21161,7 +20957,7 @@
       <c r="V30" s="35"/>
     </row>
     <row r="31" spans="1:22" ht="15.5">
-      <c r="A31" s="48"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="32">
         <v>4.5</v>
       </c>
@@ -21189,7 +20985,7 @@
       <c r="V31" s="35"/>
     </row>
     <row r="32" spans="1:22" ht="15.5">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="54" t="s">
         <v>106</v>
       </c>
       <c r="B32" s="33" t="s">
@@ -21221,7 +21017,7 @@
       <c r="V32" s="35"/>
     </row>
     <row r="33" spans="1:22" ht="15.5">
-      <c r="A33" s="48"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="32">
         <v>5.0999999999999996</v>
       </c>
@@ -21251,7 +21047,7 @@
       <c r="V33" s="35"/>
     </row>
     <row r="34" spans="1:22" ht="15.5">
-      <c r="A34" s="48"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="32">
         <v>5.2</v>
       </c>
@@ -21279,7 +21075,7 @@
       <c r="V34" s="35"/>
     </row>
     <row r="35" spans="1:22" ht="15.5">
-      <c r="A35" s="48"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="32">
         <v>5.3</v>
       </c>
@@ -21323,104 +21119,104 @@
     <mergeCell ref="K2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:V35">
-    <cfRule type="cellIs" dxfId="340" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="26" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="27" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="28" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="29" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="30" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="335" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="21" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="22" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="23" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="24" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="25" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="330" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="16" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="17" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="18" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="19" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="20" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="325" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="11" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="12" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="323" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="13" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="14" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="15" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="320" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="6" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="7" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="8" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="9" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="10" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="315" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="2" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="3" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="4" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="5" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21453,54 +21249,54 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="93">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="49" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="28" t="s">
         <v>73</v>
       </c>
       <c r="O2" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="50" t="s">
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
       <c r="V2" s="30" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="31" t="s">
         <v>78</v>
       </c>
@@ -21563,7 +21359,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.5">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="54" t="s">
         <v>98</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -21631,7 +21427,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.5">
-      <c r="A5" s="48"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="32">
         <v>1.1000000000000001</v>
       </c>
@@ -21703,7 +21499,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.5">
-      <c r="A6" s="48"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="32">
         <v>1.2</v>
       </c>
@@ -21749,7 +21545,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.5">
-      <c r="A7" s="48"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="32">
         <v>1.3</v>
       </c>
@@ -21782,7 +21578,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.5">
-      <c r="A8" s="48"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="32">
         <v>1.4</v>
       </c>
@@ -21815,7 +21611,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.5">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="54" t="s">
         <v>102</v>
       </c>
       <c r="B9" s="33" t="s">
@@ -21884,7 +21680,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.5">
-      <c r="A10" s="48"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="32">
         <v>2.1</v>
       </c>
@@ -21950,7 +21746,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.5">
-      <c r="A11" s="48"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="32">
         <v>2.2000000000000002</v>
       </c>
@@ -22016,7 +21812,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="15.5">
-      <c r="A12" s="48"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="32">
         <v>2.2999999999999998</v>
       </c>
@@ -22072,7 +21868,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.5">
-      <c r="A13" s="48"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="32">
         <v>2.4</v>
       </c>
@@ -22122,7 +21918,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.5">
-      <c r="A14" s="48"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="32">
         <v>2.5</v>
       </c>
@@ -22160,7 +21956,7 @@
       <c r="V14" s="35"/>
     </row>
     <row r="15" spans="1:27" ht="15.5">
-      <c r="A15" s="48"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="32">
         <v>2.6</v>
       </c>
@@ -22194,7 +21990,7 @@
       <c r="V15" s="35"/>
     </row>
     <row r="16" spans="1:27" ht="15.5">
-      <c r="A16" s="48"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="32">
         <v>2.7</v>
       </c>
@@ -22222,7 +22018,7 @@
       <c r="V16" s="35"/>
     </row>
     <row r="17" spans="1:22" ht="15.5">
-      <c r="A17" s="48"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="32">
         <v>2.8</v>
       </c>
@@ -22250,7 +22046,7 @@
       <c r="V17" s="35"/>
     </row>
     <row r="18" spans="1:22" ht="15.5">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="54" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="33" t="s">
@@ -22314,7 +22110,7 @@
       <c r="V18" s="35"/>
     </row>
     <row r="19" spans="1:22" ht="15.5">
-      <c r="A19" s="48"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="32">
         <v>3.1</v>
       </c>
@@ -22378,7 +22174,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.5">
-      <c r="A20" s="48"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="32">
         <v>3.2</v>
       </c>
@@ -22436,7 +22232,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.5">
-      <c r="A21" s="48"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="32">
         <v>3.3</v>
       </c>
@@ -22486,7 +22282,7 @@
       <c r="V21" s="35"/>
     </row>
     <row r="22" spans="1:22" ht="15.5">
-      <c r="A22" s="48"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="32">
         <v>3.4</v>
       </c>
@@ -22532,7 +22328,7 @@
       <c r="V22" s="35"/>
     </row>
     <row r="23" spans="1:22" ht="15.5">
-      <c r="A23" s="48"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="32">
         <v>3.5</v>
       </c>
@@ -22574,7 +22370,7 @@
       <c r="V23" s="35"/>
     </row>
     <row r="24" spans="1:22" ht="15.5">
-      <c r="A24" s="48"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="32">
         <v>3.6</v>
       </c>
@@ -22612,7 +22408,7 @@
       <c r="V24" s="35"/>
     </row>
     <row r="25" spans="1:22" ht="15.5">
-      <c r="A25" s="48"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="32">
         <v>3.7</v>
       </c>
@@ -22642,7 +22438,7 @@
       <c r="V25" s="35"/>
     </row>
     <row r="26" spans="1:22" ht="15.5">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="54" t="s">
         <v>104</v>
       </c>
       <c r="B26" s="33" t="s">
@@ -22680,7 +22476,7 @@
       <c r="V26" s="35"/>
     </row>
     <row r="27" spans="1:22" ht="15.5">
-      <c r="A27" s="48"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="32">
         <v>4.0999999999999996</v>
       </c>
@@ -22718,7 +22514,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.5">
-      <c r="A28" s="48"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="32">
         <v>4.2</v>
       </c>
@@ -22748,7 +22544,7 @@
       <c r="V28" s="35"/>
     </row>
     <row r="29" spans="1:22" ht="15.5">
-      <c r="A29" s="48"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="32">
         <v>4.3</v>
       </c>
@@ -22776,7 +22572,7 @@
       <c r="V29" s="35"/>
     </row>
     <row r="30" spans="1:22" ht="15.5">
-      <c r="A30" s="48"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="32">
         <v>4.4000000000000004</v>
       </c>
@@ -22804,7 +22600,7 @@
       <c r="V30" s="35"/>
     </row>
     <row r="31" spans="1:22" ht="15.5">
-      <c r="A31" s="48"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="32">
         <v>4.5</v>
       </c>
@@ -22832,7 +22628,7 @@
       <c r="V31" s="35"/>
     </row>
     <row r="32" spans="1:22" ht="15.5">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="54" t="s">
         <v>106</v>
       </c>
       <c r="B32" s="33" t="s">
@@ -22864,7 +22660,7 @@
       <c r="V32" s="35"/>
     </row>
     <row r="33" spans="1:22" ht="15.5">
-      <c r="A33" s="48"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="32">
         <v>5.0999999999999996</v>
       </c>
@@ -22894,7 +22690,7 @@
       <c r="V33" s="35"/>
     </row>
     <row r="34" spans="1:22" ht="15.5">
-      <c r="A34" s="48"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="32">
         <v>5.2</v>
       </c>
@@ -22922,7 +22718,7 @@
       <c r="V34" s="35"/>
     </row>
     <row r="35" spans="1:22" ht="15.5">
-      <c r="A35" s="48"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="32">
         <v>5.3</v>
       </c>
@@ -22966,104 +22762,104 @@
     <mergeCell ref="K2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:V35">
-    <cfRule type="cellIs" dxfId="310" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="26" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="27" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="28" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="29" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="30" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="305" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="21" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="22" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="23" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="24" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="25" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="300" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="16" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="17" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="18" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="19" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="20" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="295" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="11" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="12" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="13" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="14" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="15" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="290" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="6" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="7" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="8" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="9" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="10" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="285" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="2" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="3" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="4" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="5" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23096,54 +22892,54 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="93">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="49" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="28" t="s">
         <v>73</v>
       </c>
       <c r="O2" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="50" t="s">
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
       <c r="V2" s="30" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="31" t="s">
         <v>78</v>
       </c>
@@ -23206,7 +23002,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.5">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="54" t="s">
         <v>98</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -23274,7 +23070,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.5">
-      <c r="A5" s="48"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="32">
         <v>1.1000000000000001</v>
       </c>
@@ -23346,7 +23142,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.5">
-      <c r="A6" s="48"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="32">
         <v>1.2</v>
       </c>
@@ -23392,7 +23188,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.5">
-      <c r="A7" s="48"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="32">
         <v>1.3</v>
       </c>
@@ -23425,7 +23221,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.5">
-      <c r="A8" s="48"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="32">
         <v>1.4</v>
       </c>
@@ -23458,7 +23254,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.5">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="54" t="s">
         <v>102</v>
       </c>
       <c r="B9" s="33" t="s">
@@ -23527,7 +23323,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.5">
-      <c r="A10" s="48"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="32">
         <v>2.1</v>
       </c>
@@ -23593,7 +23389,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.5">
-      <c r="A11" s="48"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="32">
         <v>2.2000000000000002</v>
       </c>
@@ -23659,7 +23455,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="15.5">
-      <c r="A12" s="48"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="32">
         <v>2.2999999999999998</v>
       </c>
@@ -23715,7 +23511,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.5">
-      <c r="A13" s="48"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="32">
         <v>2.4</v>
       </c>
@@ -23765,7 +23561,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.5">
-      <c r="A14" s="48"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="32">
         <v>2.5</v>
       </c>
@@ -23803,7 +23599,7 @@
       <c r="V14" s="35"/>
     </row>
     <row r="15" spans="1:27" ht="15.5">
-      <c r="A15" s="48"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="32">
         <v>2.6</v>
       </c>
@@ -23837,7 +23633,7 @@
       <c r="V15" s="35"/>
     </row>
     <row r="16" spans="1:27" ht="15.5">
-      <c r="A16" s="48"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="32">
         <v>2.7</v>
       </c>
@@ -23865,7 +23661,7 @@
       <c r="V16" s="35"/>
     </row>
     <row r="17" spans="1:22" ht="15.5">
-      <c r="A17" s="48"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="32">
         <v>2.8</v>
       </c>
@@ -23893,7 +23689,7 @@
       <c r="V17" s="35"/>
     </row>
     <row r="18" spans="1:22" ht="15.5">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="54" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="33" t="s">
@@ -23957,7 +23753,7 @@
       <c r="V18" s="35"/>
     </row>
     <row r="19" spans="1:22" ht="15.5">
-      <c r="A19" s="48"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="32">
         <v>3.1</v>
       </c>
@@ -24021,7 +23817,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.5">
-      <c r="A20" s="48"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="32">
         <v>3.2</v>
       </c>
@@ -24079,7 +23875,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.5">
-      <c r="A21" s="48"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="32">
         <v>3.3</v>
       </c>
@@ -24129,7 +23925,7 @@
       <c r="V21" s="35"/>
     </row>
     <row r="22" spans="1:22" ht="15.5">
-      <c r="A22" s="48"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="32">
         <v>3.4</v>
       </c>
@@ -24175,7 +23971,7 @@
       <c r="V22" s="35"/>
     </row>
     <row r="23" spans="1:22" ht="15.5">
-      <c r="A23" s="48"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="32">
         <v>3.5</v>
       </c>
@@ -24217,7 +24013,7 @@
       <c r="V23" s="35"/>
     </row>
     <row r="24" spans="1:22" ht="15.5">
-      <c r="A24" s="48"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="32">
         <v>3.6</v>
       </c>
@@ -24255,7 +24051,7 @@
       <c r="V24" s="35"/>
     </row>
     <row r="25" spans="1:22" ht="15.5">
-      <c r="A25" s="48"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="32">
         <v>3.7</v>
       </c>
@@ -24285,7 +24081,7 @@
       <c r="V25" s="35"/>
     </row>
     <row r="26" spans="1:22" ht="15.5">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="54" t="s">
         <v>104</v>
       </c>
       <c r="B26" s="33" t="s">
@@ -24323,7 +24119,7 @@
       <c r="V26" s="35"/>
     </row>
     <row r="27" spans="1:22" ht="15.5">
-      <c r="A27" s="48"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="32">
         <v>4.0999999999999996</v>
       </c>
@@ -24361,7 +24157,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.5">
-      <c r="A28" s="48"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="32">
         <v>4.2</v>
       </c>
@@ -24391,7 +24187,7 @@
       <c r="V28" s="35"/>
     </row>
     <row r="29" spans="1:22" ht="15.5">
-      <c r="A29" s="48"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="32">
         <v>4.3</v>
       </c>
@@ -24419,7 +24215,7 @@
       <c r="V29" s="35"/>
     </row>
     <row r="30" spans="1:22" ht="15.5">
-      <c r="A30" s="48"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="32">
         <v>4.4000000000000004</v>
       </c>
@@ -24447,7 +24243,7 @@
       <c r="V30" s="35"/>
     </row>
     <row r="31" spans="1:22" ht="15.5">
-      <c r="A31" s="48"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="32">
         <v>4.5</v>
       </c>
@@ -24475,7 +24271,7 @@
       <c r="V31" s="35"/>
     </row>
     <row r="32" spans="1:22" ht="15.5">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="54" t="s">
         <v>106</v>
       </c>
       <c r="B32" s="33" t="s">
@@ -24507,7 +24303,7 @@
       <c r="V32" s="35"/>
     </row>
     <row r="33" spans="1:22" ht="15.5">
-      <c r="A33" s="48"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="32">
         <v>5.0999999999999996</v>
       </c>
@@ -24537,7 +24333,7 @@
       <c r="V33" s="35"/>
     </row>
     <row r="34" spans="1:22" ht="15.5">
-      <c r="A34" s="48"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="32">
         <v>5.2</v>
       </c>
@@ -24565,7 +24361,7 @@
       <c r="V34" s="35"/>
     </row>
     <row r="35" spans="1:22" ht="15.5">
-      <c r="A35" s="48"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="32">
         <v>5.3</v>
       </c>
@@ -24609,104 +24405,104 @@
     <mergeCell ref="K2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:V35">
-    <cfRule type="cellIs" dxfId="280" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="26" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="27" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="28" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="29" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="30" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="275" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="21" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="22" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="23" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="24" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="25" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="270" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="16" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="17" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="18" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="19" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="20" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="265" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="11" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="12" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="13" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="14" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="15" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="260" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="6" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="7" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="8" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="9" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="10" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="255" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="2" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="3" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="4" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="5" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24739,54 +24535,54 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="93">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="49" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="28" t="s">
         <v>73</v>
       </c>
       <c r="O2" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="50" t="s">
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
       <c r="V2" s="30" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="31" t="s">
         <v>78</v>
       </c>
@@ -24849,7 +24645,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.5">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="54" t="s">
         <v>98</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -24917,7 +24713,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.5">
-      <c r="A5" s="48"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="32">
         <v>1.1000000000000001</v>
       </c>
@@ -24989,7 +24785,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.5">
-      <c r="A6" s="48"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="32">
         <v>1.2</v>
       </c>
@@ -25035,7 +24831,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.5">
-      <c r="A7" s="48"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="32">
         <v>1.3</v>
       </c>
@@ -25068,7 +24864,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.5">
-      <c r="A8" s="48"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="32">
         <v>1.4</v>
       </c>
@@ -25101,7 +24897,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.5">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="54" t="s">
         <v>102</v>
       </c>
       <c r="B9" s="33" t="s">
@@ -25170,7 +24966,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.5">
-      <c r="A10" s="48"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="32">
         <v>2.1</v>
       </c>
@@ -25236,7 +25032,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.5">
-      <c r="A11" s="48"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="32">
         <v>2.2000000000000002</v>
       </c>
@@ -25302,7 +25098,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="15.5">
-      <c r="A12" s="48"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="32">
         <v>2.2999999999999998</v>
       </c>
@@ -25358,7 +25154,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.5">
-      <c r="A13" s="48"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="32">
         <v>2.4</v>
       </c>
@@ -25408,7 +25204,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.5">
-      <c r="A14" s="48"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="32">
         <v>2.5</v>
       </c>
@@ -25446,7 +25242,7 @@
       <c r="V14" s="35"/>
     </row>
     <row r="15" spans="1:27" ht="15.5">
-      <c r="A15" s="48"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="32">
         <v>2.6</v>
       </c>
@@ -25480,7 +25276,7 @@
       <c r="V15" s="35"/>
     </row>
     <row r="16" spans="1:27" ht="15.5">
-      <c r="A16" s="48"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="32">
         <v>2.7</v>
       </c>
@@ -25508,7 +25304,7 @@
       <c r="V16" s="35"/>
     </row>
     <row r="17" spans="1:22" ht="15.5">
-      <c r="A17" s="48"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="32">
         <v>2.8</v>
       </c>
@@ -25536,7 +25332,7 @@
       <c r="V17" s="35"/>
     </row>
     <row r="18" spans="1:22" ht="15.5">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="54" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="33" t="s">
@@ -25600,7 +25396,7 @@
       <c r="V18" s="35"/>
     </row>
     <row r="19" spans="1:22" ht="15.5">
-      <c r="A19" s="48"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="32">
         <v>3.1</v>
       </c>
@@ -25664,7 +25460,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.5">
-      <c r="A20" s="48"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="32">
         <v>3.2</v>
       </c>
@@ -25722,7 +25518,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.5">
-      <c r="A21" s="48"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="32">
         <v>3.3</v>
       </c>
@@ -25772,7 +25568,7 @@
       <c r="V21" s="35"/>
     </row>
     <row r="22" spans="1:22" ht="15.5">
-      <c r="A22" s="48"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="32">
         <v>3.4</v>
       </c>
@@ -25818,7 +25614,7 @@
       <c r="V22" s="35"/>
     </row>
     <row r="23" spans="1:22" ht="15.5">
-      <c r="A23" s="48"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="32">
         <v>3.5</v>
       </c>
@@ -25860,7 +25656,7 @@
       <c r="V23" s="35"/>
     </row>
     <row r="24" spans="1:22" ht="15.5">
-      <c r="A24" s="48"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="32">
         <v>3.6</v>
       </c>
@@ -25898,7 +25694,7 @@
       <c r="V24" s="35"/>
     </row>
     <row r="25" spans="1:22" ht="15.5">
-      <c r="A25" s="48"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="32">
         <v>3.7</v>
       </c>
@@ -25928,7 +25724,7 @@
       <c r="V25" s="35"/>
     </row>
     <row r="26" spans="1:22" ht="15.5">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="54" t="s">
         <v>104</v>
       </c>
       <c r="B26" s="33" t="s">
@@ -25966,7 +25762,7 @@
       <c r="V26" s="35"/>
     </row>
     <row r="27" spans="1:22" ht="15.5">
-      <c r="A27" s="48"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="32">
         <v>4.0999999999999996</v>
       </c>
@@ -26004,7 +25800,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.5">
-      <c r="A28" s="48"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="32">
         <v>4.2</v>
       </c>
@@ -26034,7 +25830,7 @@
       <c r="V28" s="35"/>
     </row>
     <row r="29" spans="1:22" ht="15.5">
-      <c r="A29" s="48"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="32">
         <v>4.3</v>
       </c>
@@ -26062,7 +25858,7 @@
       <c r="V29" s="35"/>
     </row>
     <row r="30" spans="1:22" ht="15.5">
-      <c r="A30" s="48"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="32">
         <v>4.4000000000000004</v>
       </c>
@@ -26090,7 +25886,7 @@
       <c r="V30" s="35"/>
     </row>
     <row r="31" spans="1:22" ht="15.5">
-      <c r="A31" s="48"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="32">
         <v>4.5</v>
       </c>
@@ -26118,7 +25914,7 @@
       <c r="V31" s="35"/>
     </row>
     <row r="32" spans="1:22" ht="15.5">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="54" t="s">
         <v>106</v>
       </c>
       <c r="B32" s="33" t="s">
@@ -26150,7 +25946,7 @@
       <c r="V32" s="35"/>
     </row>
     <row r="33" spans="1:22" ht="15.5">
-      <c r="A33" s="48"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="32">
         <v>5.0999999999999996</v>
       </c>
@@ -26180,7 +25976,7 @@
       <c r="V33" s="35"/>
     </row>
     <row r="34" spans="1:22" ht="15.5">
-      <c r="A34" s="48"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="32">
         <v>5.2</v>
       </c>
@@ -26208,7 +26004,7 @@
       <c r="V34" s="35"/>
     </row>
     <row r="35" spans="1:22" ht="15.5">
-      <c r="A35" s="48"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="32">
         <v>5.3</v>
       </c>
@@ -26252,104 +26048,104 @@
     <mergeCell ref="K2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:V35">
-    <cfRule type="cellIs" dxfId="250" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="26" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="27" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="28" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="29" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="30" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="245" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="21" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="22" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="23" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="24" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="25" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="240" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="16" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="17" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="18" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="19" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="20" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="235" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="11" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="12" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="13" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="14" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="15" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="230" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="6" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="7" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="8" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="9" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="10" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="225" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="2" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="3" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="4" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="5" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26382,54 +26178,54 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="93">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="49" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="28" t="s">
         <v>73</v>
       </c>
       <c r="O2" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="50" t="s">
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
       <c r="V2" s="30" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="31" t="s">
         <v>78</v>
       </c>
@@ -26492,7 +26288,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.5">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="54" t="s">
         <v>98</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -26560,7 +26356,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.5">
-      <c r="A5" s="48"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="32">
         <v>1.1000000000000001</v>
       </c>
@@ -26632,7 +26428,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.5">
-      <c r="A6" s="48"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="32">
         <v>1.2</v>
       </c>
@@ -26678,7 +26474,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.5">
-      <c r="A7" s="48"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="32">
         <v>1.3</v>
       </c>
@@ -26711,7 +26507,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.5">
-      <c r="A8" s="48"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="32">
         <v>1.4</v>
       </c>
@@ -26744,7 +26540,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.5">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="54" t="s">
         <v>102</v>
       </c>
       <c r="B9" s="33" t="s">
@@ -26813,7 +26609,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.5">
-      <c r="A10" s="48"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="32">
         <v>2.1</v>
       </c>
@@ -26879,7 +26675,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.5">
-      <c r="A11" s="48"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="32">
         <v>2.2000000000000002</v>
       </c>
@@ -26945,7 +26741,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="15.5">
-      <c r="A12" s="48"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="32">
         <v>2.2999999999999998</v>
       </c>
@@ -27001,7 +26797,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.5">
-      <c r="A13" s="48"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="32">
         <v>2.4</v>
       </c>
@@ -27051,7 +26847,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.5">
-      <c r="A14" s="48"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="32">
         <v>2.5</v>
       </c>
@@ -27089,7 +26885,7 @@
       <c r="V14" s="35"/>
     </row>
     <row r="15" spans="1:27" ht="15.5">
-      <c r="A15" s="48"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="32">
         <v>2.6</v>
       </c>
@@ -27123,7 +26919,7 @@
       <c r="V15" s="35"/>
     </row>
     <row r="16" spans="1:27" ht="15.5">
-      <c r="A16" s="48"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="32">
         <v>2.7</v>
       </c>
@@ -27151,7 +26947,7 @@
       <c r="V16" s="35"/>
     </row>
     <row r="17" spans="1:22" ht="15.5">
-      <c r="A17" s="48"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="32">
         <v>2.8</v>
       </c>
@@ -27179,7 +26975,7 @@
       <c r="V17" s="35"/>
     </row>
     <row r="18" spans="1:22" ht="15.5">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="54" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="33" t="s">
@@ -27243,7 +27039,7 @@
       <c r="V18" s="35"/>
     </row>
     <row r="19" spans="1:22" ht="15.5">
-      <c r="A19" s="48"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="32">
         <v>3.1</v>
       </c>
@@ -27307,7 +27103,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.5">
-      <c r="A20" s="48"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="32">
         <v>3.2</v>
       </c>
@@ -27365,7 +27161,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.5">
-      <c r="A21" s="48"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="32">
         <v>3.3</v>
       </c>
@@ -27415,7 +27211,7 @@
       <c r="V21" s="35"/>
     </row>
     <row r="22" spans="1:22" ht="15.5">
-      <c r="A22" s="48"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="32">
         <v>3.4</v>
       </c>
@@ -27461,7 +27257,7 @@
       <c r="V22" s="35"/>
     </row>
     <row r="23" spans="1:22" ht="15.5">
-      <c r="A23" s="48"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="32">
         <v>3.5</v>
       </c>
@@ -27503,7 +27299,7 @@
       <c r="V23" s="35"/>
     </row>
     <row r="24" spans="1:22" ht="15.5">
-      <c r="A24" s="48"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="32">
         <v>3.6</v>
       </c>
@@ -27541,7 +27337,7 @@
       <c r="V24" s="35"/>
     </row>
     <row r="25" spans="1:22" ht="15.5">
-      <c r="A25" s="48"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="32">
         <v>3.7</v>
       </c>
@@ -27571,7 +27367,7 @@
       <c r="V25" s="35"/>
     </row>
     <row r="26" spans="1:22" ht="15.5">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="54" t="s">
         <v>104</v>
       </c>
       <c r="B26" s="33" t="s">
@@ -27609,7 +27405,7 @@
       <c r="V26" s="35"/>
     </row>
     <row r="27" spans="1:22" ht="15.5">
-      <c r="A27" s="48"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="32">
         <v>4.0999999999999996</v>
       </c>
@@ -27647,7 +27443,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.5">
-      <c r="A28" s="48"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="32">
         <v>4.2</v>
       </c>
@@ -27677,7 +27473,7 @@
       <c r="V28" s="35"/>
     </row>
     <row r="29" spans="1:22" ht="15.5">
-      <c r="A29" s="48"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="32">
         <v>4.3</v>
       </c>
@@ -27705,7 +27501,7 @@
       <c r="V29" s="35"/>
     </row>
     <row r="30" spans="1:22" ht="15.5">
-      <c r="A30" s="48"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="32">
         <v>4.4000000000000004</v>
       </c>
@@ -27733,7 +27529,7 @@
       <c r="V30" s="35"/>
     </row>
     <row r="31" spans="1:22" ht="15.5">
-      <c r="A31" s="48"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="32">
         <v>4.5</v>
       </c>
@@ -27761,7 +27557,7 @@
       <c r="V31" s="35"/>
     </row>
     <row r="32" spans="1:22" ht="15.5">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="54" t="s">
         <v>106</v>
       </c>
       <c r="B32" s="33" t="s">
@@ -27793,7 +27589,7 @@
       <c r="V32" s="35"/>
     </row>
     <row r="33" spans="1:22" ht="15.5">
-      <c r="A33" s="48"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="32">
         <v>5.0999999999999996</v>
       </c>
@@ -27823,7 +27619,7 @@
       <c r="V33" s="35"/>
     </row>
     <row r="34" spans="1:22" ht="15.5">
-      <c r="A34" s="48"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="32">
         <v>5.2</v>
       </c>
@@ -27851,7 +27647,7 @@
       <c r="V34" s="35"/>
     </row>
     <row r="35" spans="1:22" ht="15.5">
-      <c r="A35" s="48"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="32">
         <v>5.3</v>
       </c>
@@ -27895,104 +27691,104 @@
     <mergeCell ref="K2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:V35">
-    <cfRule type="cellIs" dxfId="220" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="26" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="27" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="28" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="29" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="30" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="215" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="21" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="22" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="23" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="24" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="25" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="210" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="16" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="17" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="18" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="19" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="20" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="205" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="11" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="12" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="13" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="14" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="15" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="200" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="6" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="7" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="8" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="9" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="10" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="195" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="2" stopIfTrue="1" operator="equal">
       <formula>"FM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="3" stopIfTrue="1" operator="equal">
       <formula>"LM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="4" stopIfTrue="1" operator="equal">
       <formula>"PM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="5" stopIfTrue="1" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28002,6 +27798,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F041F74863103D4C9C3AA0A07291BB02" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b6917a42179461cc29e626d7b562cefd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25bcabcf-d275-4206-9fb1-2f2d419cd22b" xmlns:ns3="ec500478-62e0-46fc-87f1-cfa988e486b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2a71d797267f4c7d6ca005f01f7b1c6c" ns2:_="" ns3:_="">
     <xsd:import namespace="25bcabcf-d275-4206-9fb1-2f2d419cd22b"/>
@@ -28218,22 +28029,19 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3AD396B-AF60-40B6-B9B0-96840893AD50}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE45FE28-8857-469C-99C1-F7A3286F6244}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{136EE945-6243-4767-8E65-C9D6202FF8BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28250,16 +28058,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE45FE28-8857-469C-99C1-F7A3286F6244}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3AD396B-AF60-40B6-B9B0-96840893AD50}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>